--- a/grupos/5APM - Estadisticos 20211.xlsx
+++ b/grupos/5APM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="127">
   <si>
     <t>Materia</t>
   </si>
@@ -161,22 +161,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
+    <t>De Jesús Orduña Sofía del Pilar</t>
+  </si>
+  <si>
+    <t>Duran Amezcua María Angélica</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Rodriguez Roman Marisol</t>
+  </si>
+  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
-    <t>Duran Amezcua María Angélica</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>De Jesús Orduña Sofía del Pilar</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Rodriguez Roman Marisol</t>
   </si>
   <si>
     <t>NC</t>
@@ -887,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -902,7 +902,7 @@
         <v>-1</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -941,7 +941,7 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U4">
         <v>6</v>
@@ -956,7 +956,7 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -964,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -979,7 +979,7 @@
         <v>-1</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1018,7 +1018,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <v>6</v>
@@ -1033,7 +1033,7 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1056,7 +1056,7 @@
         <v>-1</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1110,7 +1110,7 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1118,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1133,7 +1133,7 @@
         <v>-1</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1172,7 +1172,7 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U7">
         <v>7</v>
@@ -1187,7 +1187,7 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1195,7 +1195,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -1210,7 +1210,7 @@
         <v>-1</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1249,7 +1249,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U8">
         <v>6</v>
@@ -1264,7 +1264,7 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1272,7 +1272,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -1287,7 +1287,7 @@
         <v>-1</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1326,7 +1326,7 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>-1</v>
@@ -1341,7 +1341,7 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1349,7 +1349,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -1364,7 +1364,7 @@
         <v>-1</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1403,7 +1403,7 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U10">
         <v>7</v>
@@ -1418,7 +1418,7 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1426,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -1441,7 +1441,7 @@
         <v>-1</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1480,7 +1480,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U11">
         <v>6</v>
@@ -1495,7 +1495,7 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1503,7 +1503,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1518,7 +1518,7 @@
         <v>-1</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1557,7 +1557,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U12">
         <v>7</v>
@@ -1572,7 +1572,7 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1580,7 +1580,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1595,7 +1595,7 @@
         <v>-1</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1634,7 +1634,7 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U13">
         <v>-1</v>
@@ -1649,7 +1649,7 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1657,7 +1657,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -1672,7 +1672,7 @@
         <v>-1</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1711,7 +1711,7 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U14">
         <v>8</v>
@@ -1726,7 +1726,7 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1734,7 +1734,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -1749,7 +1749,7 @@
         <v>-1</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -1788,7 +1788,7 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U15">
         <v>-1</v>
@@ -1803,7 +1803,7 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1811,7 +1811,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -1826,7 +1826,7 @@
         <v>-1</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1865,7 +1865,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U16">
         <v>7</v>
@@ -1880,7 +1880,7 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1888,7 +1888,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1903,7 +1903,7 @@
         <v>-1</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -1942,7 +1942,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U17">
         <v>-1</v>
@@ -1957,7 +1957,7 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1965,7 +1965,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1980,7 +1980,7 @@
         <v>-1</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U18">
         <v>8</v>
@@ -2034,7 +2034,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2057,7 +2057,7 @@
         <v>-1</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2111,7 +2111,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2119,7 +2119,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -2134,7 +2134,7 @@
         <v>-1</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2173,7 +2173,7 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U20">
         <v>7</v>
@@ -2188,7 +2188,7 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2196,7 +2196,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -2211,7 +2211,7 @@
         <v>-1</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2250,7 +2250,7 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U21">
         <v>7</v>
@@ -2265,7 +2265,7 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2273,7 +2273,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -2288,7 +2288,7 @@
         <v>-1</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2327,7 +2327,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U22">
         <v>7</v>
@@ -2342,7 +2342,7 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2350,7 +2350,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -2365,7 +2365,7 @@
         <v>-1</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -2404,7 +2404,7 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U23">
         <v>-1</v>
@@ -2419,7 +2419,7 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2427,7 +2427,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -2442,7 +2442,7 @@
         <v>-1</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2481,7 +2481,7 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U24">
         <v>9</v>
@@ -2496,7 +2496,7 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2504,7 +2504,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -2519,7 +2519,7 @@
         <v>-1</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2558,7 +2558,7 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U25">
         <v>-1</v>
@@ -2573,7 +2573,7 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2581,7 +2581,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -2596,7 +2596,7 @@
         <v>-1</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2635,7 +2635,7 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U26">
         <v>7</v>
@@ -2650,7 +2650,7 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2658,7 +2658,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -2673,7 +2673,7 @@
         <v>-1</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2712,7 +2712,7 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U27">
         <v>-1</v>
@@ -2727,7 +2727,7 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2735,7 +2735,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -2750,7 +2750,7 @@
         <v>-1</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2789,7 +2789,7 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U28">
         <v>-1</v>
@@ -2804,7 +2804,7 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2812,7 +2812,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -2827,7 +2827,7 @@
         <v>-1</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2866,7 +2866,7 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U29">
         <v>8</v>
@@ -2881,7 +2881,7 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -2978,27 +2978,30 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>65.38</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
       <c r="I3">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
@@ -3007,27 +3010,30 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>73.08</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>19.23</v>
+      </c>
+      <c r="H4">
+        <v>6.6</v>
       </c>
       <c r="I4">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -3036,30 +3042,30 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>65.38</v>
+        <v>73.08</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>34.62</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -3068,30 +3074,30 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>73.08</v>
+        <v>80.77</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>26.92</v>
+        <v>19.23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -3100,25 +3106,25 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>88.45999999999999</v>
+      </c>
+      <c r="G7">
+        <v>11.54</v>
+      </c>
+      <c r="H7">
+        <v>6.7</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>80.77</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
         <v>0</v>
-      </c>
-      <c r="H7">
-        <v>6.6</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>19.23</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3181,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3195,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3215,7 +3221,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3235,7 +3241,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3255,7 +3261,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3275,7 +3281,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3295,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3315,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3335,7 +3341,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3355,7 +3361,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3375,7 +3381,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3395,7 +3401,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3415,7 +3421,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3435,7 +3441,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3455,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3475,7 +3481,7 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3495,7 +3501,7 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3515,7 +3521,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3535,7 +3541,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3555,7 +3561,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3575,7 +3581,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3595,7 +3601,7 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3615,7 +3621,7 @@
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3635,7 +3641,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3655,7 +3661,7 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3675,7 +3681,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3695,7 +3701,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3715,7 +3721,7 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3735,7 +3741,7 @@
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3755,7 +3761,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3775,7 +3781,7 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3795,7 +3801,7 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3815,7 +3821,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3835,7 +3841,7 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3855,7 +3861,7 @@
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3875,7 +3881,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3895,7 +3901,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3915,7 +3921,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3935,7 +3941,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3955,7 +3961,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3975,7 +3981,7 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3995,7 +4001,7 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4015,7 +4021,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4035,7 +4041,7 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4055,7 +4061,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4075,7 +4081,7 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4095,7 +4101,7 @@
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4115,7 +4121,7 @@
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4135,7 +4141,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4155,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4175,7 +4181,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4195,7 +4201,7 @@
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4215,7 +4221,7 @@
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4235,7 +4241,7 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4255,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4275,7 +4281,7 @@
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4295,7 +4301,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4315,7 +4321,7 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4335,7 +4341,7 @@
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4355,7 +4361,7 @@
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4375,7 +4381,7 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4395,7 +4401,7 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4415,7 +4421,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4435,7 +4441,7 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4455,7 +4461,7 @@
         <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4475,7 +4481,7 @@
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4495,7 +4501,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4515,7 +4521,7 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4535,7 +4541,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4555,7 +4561,7 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4575,7 +4581,7 @@
         <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4595,7 +4601,7 @@
         <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4615,7 +4621,7 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4635,7 +4641,7 @@
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4655,7 +4661,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4675,7 +4681,7 @@
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4695,7 +4701,7 @@
         <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4715,7 +4721,7 @@
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4735,7 +4741,7 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4755,7 +4761,7 @@
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4775,7 +4781,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4795,7 +4801,7 @@
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4815,7 +4821,7 @@
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4835,7 +4841,7 @@
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4855,7 +4861,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4875,7 +4881,7 @@
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4895,7 +4901,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4915,7 +4921,7 @@
         <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4935,7 +4941,7 @@
         <v>6</v>
       </c>
       <c r="F90" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4955,7 +4961,7 @@
         <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4975,7 +4981,7 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4995,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5015,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5035,7 +5041,7 @@
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5055,7 +5061,7 @@
         <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5075,7 +5081,7 @@
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5095,7 +5101,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5115,7 +5121,7 @@
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5135,7 +5141,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5155,7 +5161,7 @@
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5175,7 +5181,7 @@
         <v>6</v>
       </c>
       <c r="F102" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5195,7 +5201,7 @@
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5215,7 +5221,7 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5235,7 +5241,7 @@
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5255,7 +5261,7 @@
         <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5275,7 +5281,7 @@
         <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5295,7 +5301,7 @@
         <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5315,7 +5321,7 @@
         <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5335,7 +5341,7 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5355,7 +5361,7 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5375,7 +5381,7 @@
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5395,7 +5401,7 @@
         <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5415,7 +5421,7 @@
         <v>6</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5435,7 +5441,7 @@
         <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5455,7 +5461,7 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5475,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="F117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5495,7 +5501,7 @@
         <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5515,7 +5521,7 @@
         <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5535,7 +5541,7 @@
         <v>6</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5555,7 +5561,7 @@
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5575,7 +5581,7 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5595,7 +5601,7 @@
         <v>5</v>
       </c>
       <c r="F123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5615,7 +5621,7 @@
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5635,7 +5641,7 @@
         <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5655,7 +5661,7 @@
         <v>6</v>
       </c>
       <c r="F126" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5675,7 +5681,7 @@
         <v>8</v>
       </c>
       <c r="F127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5695,7 +5701,7 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5715,7 +5721,7 @@
         <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5735,7 +5741,7 @@
         <v>7</v>
       </c>
       <c r="F130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5755,7 +5761,7 @@
         <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5775,7 +5781,7 @@
         <v>6</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5795,7 +5801,7 @@
         <v>8</v>
       </c>
       <c r="F133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5815,7 +5821,7 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5835,7 +5841,7 @@
         <v>5</v>
       </c>
       <c r="F135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5855,7 +5861,7 @@
         <v>7</v>
       </c>
       <c r="F136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5875,7 +5881,7 @@
         <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5895,7 +5901,7 @@
         <v>6</v>
       </c>
       <c r="F138" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5915,7 +5921,7 @@
         <v>8</v>
       </c>
       <c r="F139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5935,7 +5941,7 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5955,7 +5961,7 @@
         <v>5</v>
       </c>
       <c r="F141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5975,7 +5981,7 @@
         <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5995,7 +6001,7 @@
         <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6015,7 +6021,7 @@
         <v>6</v>
       </c>
       <c r="F144" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6035,7 +6041,7 @@
         <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6055,7 +6061,7 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6075,7 +6081,7 @@
         <v>5</v>
       </c>
       <c r="F147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6095,7 +6101,7 @@
         <v>7</v>
       </c>
       <c r="F148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6115,7 +6121,7 @@
         <v>9</v>
       </c>
       <c r="F149" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6135,7 +6141,7 @@
         <v>6</v>
       </c>
       <c r="F150" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6155,7 +6161,7 @@
         <v>8</v>
       </c>
       <c r="F151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6175,7 +6181,7 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6195,7 +6201,7 @@
         <v>5</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6215,7 +6221,7 @@
         <v>7</v>
       </c>
       <c r="F154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6235,7 +6241,7 @@
         <v>9</v>
       </c>
       <c r="F155" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6255,7 +6261,7 @@
         <v>6</v>
       </c>
       <c r="F156" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6275,7 +6281,7 @@
         <v>8</v>
       </c>
       <c r="F157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6761,7 +6767,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6794,6 +6800,535 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920237</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051420227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051420227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920239</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920239</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920223</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920430</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920225</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920226</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920229</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920230</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920232</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920429</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920228</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920404</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920240</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920242</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920245</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/5APM - Estadisticos 20211.xlsx
+++ b/grupos/5APM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="127">
   <si>
     <t>Materia</t>
   </si>
@@ -191,81 +191,150 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CHORA</t>
+  </si>
+  <si>
+    <t>GARIBAY</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERAS</t>
+  </si>
+  <si>
+    <t>LADINO</t>
+  </si>
+  <si>
+    <t>LICEA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>CELICEO</t>
+  </si>
+  <si>
+    <t>CALPULALPAN</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>MOISES URIEL</t>
+  </si>
+  <si>
+    <t>GABRIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>MARCOS URIEL</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>PAOLA</t>
+  </si>
+  <si>
+    <t>YARELY JACQUELINE</t>
+  </si>
+  <si>
+    <t>CESAR ENRIQUE</t>
+  </si>
+  <si>
+    <t>ZURISADAI</t>
+  </si>
+  <si>
+    <t>QADMIEL TAMARA</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>NADYA GUADALUPE</t>
+  </si>
+  <si>
+    <t>DANTE GAMALIEL</t>
+  </si>
+  <si>
+    <t>ABDIEL ANTONIO</t>
+  </si>
+  <si>
+    <t>DANIELA JAQUELINE</t>
+  </si>
+  <si>
     <t>ALEJO</t>
   </si>
   <si>
     <t>CARDENAS</t>
   </si>
   <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
     <t>CESPEDES</t>
   </si>
   <si>
     <t>CHIPAHUA</t>
   </si>
   <si>
-    <t>CHORA</t>
-  </si>
-  <si>
     <t>DIAZ</t>
   </si>
   <si>
     <t>ESTRADA</t>
   </si>
   <si>
-    <t>GARIBAY</t>
-  </si>
-  <si>
     <t>GASPAR</t>
   </si>
   <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HERAS</t>
-  </si>
-  <si>
-    <t>LADINO</t>
-  </si>
-  <si>
-    <t>LICEA</t>
-  </si>
-  <si>
     <t>DE LA LUZ</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
     <t>REYNOSO</t>
   </si>
   <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
     <t>VERA</t>
   </si>
   <si>
@@ -275,51 +344,24 @@
     <t>RAMOS</t>
   </si>
   <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
     <t>CRUZ</t>
   </si>
   <si>
     <t>PANZO</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>CASTAÑEDA</t>
   </si>
   <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>CELICEO</t>
-  </si>
-  <si>
-    <t>CALPULALPAN</t>
-  </si>
-  <si>
     <t>HUESCA</t>
   </si>
   <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
     <t>ALCARAZ</t>
   </si>
   <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
     <t>LLAVE</t>
   </si>
   <si>
@@ -329,73 +371,31 @@
     <t>JOSE LUIS</t>
   </si>
   <si>
-    <t>MOISES URIEL</t>
-  </si>
-  <si>
     <t>ERICK MANUEL</t>
   </si>
   <si>
     <t>KARLA FABIOLA</t>
   </si>
   <si>
-    <t>GABRIEL ALEJANDRO</t>
-  </si>
-  <si>
     <t>IRVING YAHIR</t>
   </si>
   <si>
     <t>BRAULIO VADIR</t>
   </si>
   <si>
-    <t>MARCOS URIEL</t>
-  </si>
-  <si>
     <t>VIANEY</t>
   </si>
   <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>PAOLA</t>
-  </si>
-  <si>
-    <t>YARELY JACQUELINE</t>
-  </si>
-  <si>
-    <t>CESAR ENRIQUE</t>
-  </si>
-  <si>
-    <t>ZURISADAI</t>
-  </si>
-  <si>
-    <t>QADMIEL TAMARA</t>
-  </si>
-  <si>
     <t>FATIMA</t>
   </si>
   <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
     <t>RENZO JHOVANI</t>
   </si>
   <si>
     <t>MARIA DE JESUS</t>
   </si>
   <si>
-    <t>NADYA GUADALUPE</t>
-  </si>
-  <si>
-    <t>DANTE GAMALIEL</t>
-  </si>
-  <si>
     <t>ANGEL EDUARDO</t>
-  </si>
-  <si>
-    <t>ABDIEL ANTONIO</t>
-  </si>
-  <si>
-    <t>DANIELA JAQUELINE</t>
   </si>
   <si>
     <t>YESUA ISIDRO</t>
@@ -899,7 +899,7 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -953,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y4">
         <v>6</v>
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -1030,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y5">
         <v>8</v>
@@ -1130,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1184,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y7">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -1261,7 +1261,7 @@
         <v>8</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y8">
         <v>9</v>
@@ -1361,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1415,7 +1415,7 @@
         <v>8</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y10">
         <v>8</v>
@@ -1438,7 +1438,7 @@
         <v>6</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1492,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y11">
         <v>7</v>
@@ -1515,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -1569,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y12">
         <v>6</v>
@@ -1669,7 +1669,7 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -1723,7 +1723,7 @@
         <v>6</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y14">
         <v>8</v>
@@ -1823,7 +1823,7 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G16">
         <v>8</v>
@@ -1877,7 +1877,7 @@
         <v>8</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y16">
         <v>8</v>
@@ -2131,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -2185,7 +2185,7 @@
         <v>6</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y20">
         <v>6</v>
@@ -2208,7 +2208,7 @@
         <v>8</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -2262,7 +2262,7 @@
         <v>8</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y21">
         <v>6</v>
@@ -2285,7 +2285,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -2339,7 +2339,7 @@
         <v>6</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y22">
         <v>7</v>
@@ -2362,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -2416,7 +2416,7 @@
         <v>6</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y23">
         <v>7</v>
@@ -2439,7 +2439,7 @@
         <v>7</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G24">
         <v>7</v>
@@ -2493,7 +2493,7 @@
         <v>7</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y24">
         <v>7</v>
@@ -2593,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>8</v>
@@ -2647,7 +2647,7 @@
         <v>6</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y26">
         <v>8</v>
@@ -2824,7 +2824,7 @@
         <v>7</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -2878,7 +2878,7 @@
         <v>7</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y29">
         <v>6</v>
@@ -2949,22 +2949,25 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>61.54</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>6.8</v>
+      </c>
       <c r="I2">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3134,7 +3137,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3166,296 +3169,296 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920223</v>
+        <v>19330051920224</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920223</v>
+        <v>19330051920224</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920223</v>
+        <v>19330051920224</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920223</v>
+        <v>19330051920224</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920223</v>
+        <v>19330051920224</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920223</v>
+        <v>19330051920227</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920430</v>
+        <v>19330051920227</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920430</v>
+        <v>19330051920231</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920430</v>
+        <v>19330051920231</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920430</v>
+        <v>19330051920231</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920430</v>
+        <v>19330051920231</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920430</v>
+        <v>19330051920233</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
         <v>84</v>
       </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920224</v>
+        <v>19330051920233</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920224</v>
+        <v>19330051920233</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920224</v>
+        <v>19330051920234</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
         <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -3466,16 +3469,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920224</v>
+        <v>19330051920429</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -3486,2802 +3489,342 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920224</v>
+        <v>19330051920235</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920224</v>
+        <v>19330051920235</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920225</v>
+        <v>19330051920236</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920225</v>
+        <v>19330051920236</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920225</v>
+        <v>19330051920236</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920225</v>
+        <v>19330051920237</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920225</v>
+        <v>19330051420227</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920225</v>
+        <v>19330051920239</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920226</v>
+        <v>19330051920241</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920226</v>
+        <v>19330051920241</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920226</v>
+        <v>19330051920241</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920226</v>
+        <v>19330051920243</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920226</v>
+        <v>19330051920243</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920226</v>
+        <v>19330051920243</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920227</v>
+        <v>19330051920243</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920227</v>
+        <v>19330051920244</v>
       </c>
       <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
         <v>62</v>
       </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920227</v>
+        <v>19330051920244</v>
       </c>
       <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
         <v>62</v>
       </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>19330051920227</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>19330051920227</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>19330051920227</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>19330051920229</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>19330051920229</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>19330051920229</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>19330051920229</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>19330051920229</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>19330051920229</v>
-      </c>
-      <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>19330051920230</v>
-      </c>
-      <c r="B44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>19330051920230</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>19330051920230</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>19330051920230</v>
-      </c>
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>19330051920230</v>
-      </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>19330051920230</v>
-      </c>
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>19330051920231</v>
-      </c>
-      <c r="B50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>19330051920231</v>
-      </c>
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>19330051920231</v>
-      </c>
-      <c r="B52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>19330051920231</v>
-      </c>
-      <c r="B53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051920231</v>
-      </c>
-      <c r="B54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>19330051920231</v>
-      </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>19330051920232</v>
-      </c>
-      <c r="B56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>19330051920232</v>
-      </c>
-      <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>19330051920232</v>
-      </c>
-      <c r="B58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>19330051920232</v>
-      </c>
-      <c r="B59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>19330051920232</v>
-      </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>19330051920232</v>
-      </c>
-      <c r="B61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>19330051920233</v>
-      </c>
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>19330051920233</v>
-      </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>19330051920233</v>
-      </c>
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" t="s">
-        <v>111</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>19330051920233</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" t="s">
-        <v>111</v>
-      </c>
-      <c r="E65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>19330051920233</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>19330051920233</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19330051920234</v>
-      </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" t="s">
-        <v>112</v>
-      </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920234</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E69" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920234</v>
-      </c>
-      <c r="B70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" t="s">
-        <v>112</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920234</v>
-      </c>
-      <c r="B71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920234</v>
-      </c>
-      <c r="B72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" t="s">
-        <v>112</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920234</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920429</v>
-      </c>
-      <c r="B74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920429</v>
-      </c>
-      <c r="B75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" t="s">
-        <v>93</v>
-      </c>
-      <c r="D75" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920429</v>
-      </c>
-      <c r="B76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920429</v>
-      </c>
-      <c r="B77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" t="s">
-        <v>93</v>
-      </c>
-      <c r="D77" t="s">
-        <v>113</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920429</v>
-      </c>
-      <c r="B78" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" t="s">
-        <v>93</v>
-      </c>
-      <c r="D78" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920429</v>
-      </c>
-      <c r="B79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D79" t="s">
-        <v>113</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920235</v>
-      </c>
-      <c r="B80" t="s">
-        <v>70</v>
-      </c>
-      <c r="C80" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" t="s">
-        <v>114</v>
-      </c>
-      <c r="E80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920235</v>
-      </c>
-      <c r="B81" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" t="s">
-        <v>114</v>
-      </c>
-      <c r="E81" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920235</v>
-      </c>
-      <c r="B82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" t="s">
-        <v>114</v>
-      </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920235</v>
-      </c>
-      <c r="B83" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D83" t="s">
-        <v>114</v>
-      </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920235</v>
-      </c>
-      <c r="B84" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920235</v>
-      </c>
-      <c r="B85" t="s">
-        <v>70</v>
-      </c>
-      <c r="C85" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" t="s">
-        <v>114</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920236</v>
-      </c>
-      <c r="B86" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" t="s">
-        <v>69</v>
-      </c>
-      <c r="D86" t="s">
-        <v>115</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920236</v>
-      </c>
-      <c r="B87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" t="s">
-        <v>115</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920236</v>
-      </c>
-      <c r="B88" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" t="s">
-        <v>69</v>
-      </c>
-      <c r="D88" t="s">
-        <v>115</v>
-      </c>
-      <c r="E88" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920236</v>
-      </c>
-      <c r="B89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" t="s">
-        <v>69</v>
-      </c>
-      <c r="D89" t="s">
-        <v>115</v>
-      </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920236</v>
-      </c>
-      <c r="B90" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90" t="s">
-        <v>69</v>
-      </c>
-      <c r="D90" t="s">
-        <v>115</v>
-      </c>
-      <c r="E90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920236</v>
-      </c>
-      <c r="B91" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" t="s">
-        <v>69</v>
-      </c>
-      <c r="D91" t="s">
-        <v>115</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920237</v>
-      </c>
-      <c r="B92" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" t="s">
-        <v>76</v>
-      </c>
-      <c r="D92" t="s">
-        <v>116</v>
-      </c>
-      <c r="E92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920237</v>
-      </c>
-      <c r="B93" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" t="s">
-        <v>76</v>
-      </c>
-      <c r="D93" t="s">
-        <v>116</v>
-      </c>
-      <c r="E93" t="s">
-        <v>5</v>
-      </c>
-      <c r="F93" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920237</v>
-      </c>
-      <c r="B94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" t="s">
-        <v>116</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920237</v>
-      </c>
-      <c r="B95" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" t="s">
-        <v>76</v>
-      </c>
-      <c r="D95" t="s">
-        <v>116</v>
-      </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920237</v>
-      </c>
-      <c r="B96" t="s">
-        <v>72</v>
-      </c>
-      <c r="C96" t="s">
-        <v>76</v>
-      </c>
-      <c r="D96" t="s">
-        <v>116</v>
-      </c>
-      <c r="E96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920237</v>
-      </c>
-      <c r="B97" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" t="s">
-        <v>76</v>
-      </c>
-      <c r="D97" t="s">
-        <v>116</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920228</v>
-      </c>
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C98" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" t="s">
-        <v>117</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920228</v>
-      </c>
-      <c r="B99" t="s">
-        <v>73</v>
-      </c>
-      <c r="C99" t="s">
-        <v>94</v>
-      </c>
-      <c r="D99" t="s">
-        <v>117</v>
-      </c>
-      <c r="E99" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920228</v>
-      </c>
-      <c r="B100" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100" t="s">
-        <v>94</v>
-      </c>
-      <c r="D100" t="s">
-        <v>117</v>
-      </c>
-      <c r="E100" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920228</v>
-      </c>
-      <c r="B101" t="s">
-        <v>73</v>
-      </c>
-      <c r="C101" t="s">
-        <v>94</v>
-      </c>
-      <c r="D101" t="s">
-        <v>117</v>
-      </c>
-      <c r="E101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920228</v>
-      </c>
-      <c r="B102" t="s">
-        <v>73</v>
-      </c>
-      <c r="C102" t="s">
-        <v>94</v>
-      </c>
-      <c r="D102" t="s">
-        <v>117</v>
-      </c>
-      <c r="E102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920228</v>
-      </c>
-      <c r="B103" t="s">
-        <v>73</v>
-      </c>
-      <c r="C103" t="s">
-        <v>94</v>
-      </c>
-      <c r="D103" t="s">
-        <v>117</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051420227</v>
-      </c>
-      <c r="B104" t="s">
-        <v>74</v>
-      </c>
-      <c r="C104" t="s">
-        <v>95</v>
-      </c>
-      <c r="D104" t="s">
-        <v>118</v>
-      </c>
-      <c r="E104" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051420227</v>
-      </c>
-      <c r="B105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C105" t="s">
-        <v>95</v>
-      </c>
-      <c r="D105" t="s">
-        <v>118</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051420227</v>
-      </c>
-      <c r="B106" t="s">
-        <v>74</v>
-      </c>
-      <c r="C106" t="s">
-        <v>95</v>
-      </c>
-      <c r="D106" t="s">
-        <v>118</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051420227</v>
-      </c>
-      <c r="B107" t="s">
-        <v>74</v>
-      </c>
-      <c r="C107" t="s">
-        <v>95</v>
-      </c>
-      <c r="D107" t="s">
-        <v>118</v>
-      </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051420227</v>
-      </c>
-      <c r="B108" t="s">
-        <v>74</v>
-      </c>
-      <c r="C108" t="s">
-        <v>95</v>
-      </c>
-      <c r="D108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051420227</v>
-      </c>
-      <c r="B109" t="s">
-        <v>74</v>
-      </c>
-      <c r="C109" t="s">
-        <v>95</v>
-      </c>
-      <c r="D109" t="s">
-        <v>118</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920404</v>
-      </c>
-      <c r="B110" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110" t="s">
-        <v>96</v>
-      </c>
-      <c r="D110" t="s">
-        <v>119</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920404</v>
-      </c>
-      <c r="B111" t="s">
-        <v>75</v>
-      </c>
-      <c r="C111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D111" t="s">
-        <v>119</v>
-      </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920404</v>
-      </c>
-      <c r="B112" t="s">
-        <v>75</v>
-      </c>
-      <c r="C112" t="s">
-        <v>96</v>
-      </c>
-      <c r="D112" t="s">
-        <v>119</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920404</v>
-      </c>
-      <c r="B113" t="s">
-        <v>75</v>
-      </c>
-      <c r="C113" t="s">
-        <v>96</v>
-      </c>
-      <c r="D113" t="s">
-        <v>119</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920404</v>
-      </c>
-      <c r="B114" t="s">
-        <v>75</v>
-      </c>
-      <c r="C114" t="s">
-        <v>96</v>
-      </c>
-      <c r="D114" t="s">
-        <v>119</v>
-      </c>
-      <c r="E114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920404</v>
-      </c>
-      <c r="B115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C115" t="s">
-        <v>96</v>
-      </c>
-      <c r="D115" t="s">
-        <v>119</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920240</v>
-      </c>
-      <c r="B116" t="s">
-        <v>76</v>
-      </c>
-      <c r="C116" t="s">
-        <v>67</v>
-      </c>
-      <c r="D116" t="s">
-        <v>120</v>
-      </c>
-      <c r="E116" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920240</v>
-      </c>
-      <c r="B117" t="s">
-        <v>76</v>
-      </c>
-      <c r="C117" t="s">
-        <v>67</v>
-      </c>
-      <c r="D117" t="s">
-        <v>120</v>
-      </c>
-      <c r="E117" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920240</v>
-      </c>
-      <c r="B118" t="s">
-        <v>76</v>
-      </c>
-      <c r="C118" t="s">
-        <v>67</v>
-      </c>
-      <c r="D118" t="s">
-        <v>120</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920240</v>
-      </c>
-      <c r="B119" t="s">
-        <v>76</v>
-      </c>
-      <c r="C119" t="s">
-        <v>67</v>
-      </c>
-      <c r="D119" t="s">
-        <v>120</v>
-      </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920240</v>
-      </c>
-      <c r="B120" t="s">
-        <v>76</v>
-      </c>
-      <c r="C120" t="s">
-        <v>67</v>
-      </c>
-      <c r="D120" t="s">
-        <v>120</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920240</v>
-      </c>
-      <c r="B121" t="s">
-        <v>76</v>
-      </c>
-      <c r="C121" t="s">
-        <v>67</v>
-      </c>
-      <c r="D121" t="s">
-        <v>120</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920239</v>
-      </c>
-      <c r="B122" t="s">
-        <v>77</v>
-      </c>
-      <c r="C122" t="s">
-        <v>97</v>
-      </c>
-      <c r="D122" t="s">
-        <v>121</v>
-      </c>
-      <c r="E122" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920239</v>
-      </c>
-      <c r="B123" t="s">
-        <v>77</v>
-      </c>
-      <c r="C123" t="s">
-        <v>97</v>
-      </c>
-      <c r="D123" t="s">
-        <v>121</v>
-      </c>
-      <c r="E123" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920239</v>
-      </c>
-      <c r="B124" t="s">
-        <v>77</v>
-      </c>
-      <c r="C124" t="s">
-        <v>97</v>
-      </c>
-      <c r="D124" t="s">
-        <v>121</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920239</v>
-      </c>
-      <c r="B125" t="s">
-        <v>77</v>
-      </c>
-      <c r="C125" t="s">
-        <v>97</v>
-      </c>
-      <c r="D125" t="s">
-        <v>121</v>
-      </c>
-      <c r="E125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920239</v>
-      </c>
-      <c r="B126" t="s">
-        <v>77</v>
-      </c>
-      <c r="C126" t="s">
-        <v>97</v>
-      </c>
-      <c r="D126" t="s">
-        <v>121</v>
-      </c>
-      <c r="E126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920239</v>
-      </c>
-      <c r="B127" t="s">
-        <v>77</v>
-      </c>
-      <c r="C127" t="s">
-        <v>97</v>
-      </c>
-      <c r="D127" t="s">
-        <v>121</v>
-      </c>
-      <c r="E127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920241</v>
-      </c>
-      <c r="B128" t="s">
-        <v>78</v>
-      </c>
-      <c r="C128" t="s">
-        <v>98</v>
-      </c>
-      <c r="D128" t="s">
-        <v>122</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920241</v>
-      </c>
-      <c r="B129" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" t="s">
-        <v>98</v>
-      </c>
-      <c r="D129" t="s">
-        <v>122</v>
-      </c>
-      <c r="E129" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920241</v>
-      </c>
-      <c r="B130" t="s">
-        <v>78</v>
-      </c>
-      <c r="C130" t="s">
-        <v>98</v>
-      </c>
-      <c r="D130" t="s">
-        <v>122</v>
-      </c>
-      <c r="E130" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920241</v>
-      </c>
-      <c r="B131" t="s">
-        <v>78</v>
-      </c>
-      <c r="C131" t="s">
-        <v>98</v>
-      </c>
-      <c r="D131" t="s">
-        <v>122</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920241</v>
-      </c>
-      <c r="B132" t="s">
-        <v>78</v>
-      </c>
-      <c r="C132" t="s">
-        <v>98</v>
-      </c>
-      <c r="D132" t="s">
-        <v>122</v>
-      </c>
-      <c r="E132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F132" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920241</v>
-      </c>
-      <c r="B133" t="s">
-        <v>78</v>
-      </c>
-      <c r="C133" t="s">
-        <v>98</v>
-      </c>
-      <c r="D133" t="s">
-        <v>122</v>
-      </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920242</v>
-      </c>
-      <c r="B134" t="s">
-        <v>79</v>
-      </c>
-      <c r="C134" t="s">
-        <v>69</v>
-      </c>
-      <c r="D134" t="s">
-        <v>123</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920242</v>
-      </c>
-      <c r="B135" t="s">
-        <v>79</v>
-      </c>
-      <c r="C135" t="s">
-        <v>69</v>
-      </c>
-      <c r="D135" t="s">
-        <v>123</v>
-      </c>
-      <c r="E135" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920242</v>
-      </c>
-      <c r="B136" t="s">
-        <v>79</v>
-      </c>
-      <c r="C136" t="s">
-        <v>69</v>
-      </c>
-      <c r="D136" t="s">
-        <v>123</v>
-      </c>
-      <c r="E136" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920242</v>
-      </c>
-      <c r="B137" t="s">
-        <v>79</v>
-      </c>
-      <c r="C137" t="s">
-        <v>69</v>
-      </c>
-      <c r="D137" t="s">
-        <v>123</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920242</v>
-      </c>
-      <c r="B138" t="s">
-        <v>79</v>
-      </c>
-      <c r="C138" t="s">
-        <v>69</v>
-      </c>
-      <c r="D138" t="s">
-        <v>123</v>
-      </c>
-      <c r="E138" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920242</v>
-      </c>
-      <c r="B139" t="s">
-        <v>79</v>
-      </c>
-      <c r="C139" t="s">
-        <v>69</v>
-      </c>
-      <c r="D139" t="s">
-        <v>123</v>
-      </c>
-      <c r="E139" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920243</v>
-      </c>
-      <c r="B140" t="s">
-        <v>80</v>
-      </c>
-      <c r="C140" t="s">
-        <v>99</v>
-      </c>
-      <c r="D140" t="s">
-        <v>124</v>
-      </c>
-      <c r="E140" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920243</v>
-      </c>
-      <c r="B141" t="s">
-        <v>80</v>
-      </c>
-      <c r="C141" t="s">
-        <v>99</v>
-      </c>
-      <c r="D141" t="s">
-        <v>124</v>
-      </c>
-      <c r="E141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F141" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920243</v>
-      </c>
-      <c r="B142" t="s">
-        <v>80</v>
-      </c>
-      <c r="C142" t="s">
-        <v>99</v>
-      </c>
-      <c r="D142" t="s">
-        <v>124</v>
-      </c>
-      <c r="E142" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920243</v>
-      </c>
-      <c r="B143" t="s">
-        <v>80</v>
-      </c>
-      <c r="C143" t="s">
-        <v>99</v>
-      </c>
-      <c r="D143" t="s">
-        <v>124</v>
-      </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920243</v>
-      </c>
-      <c r="B144" t="s">
-        <v>80</v>
-      </c>
-      <c r="C144" t="s">
-        <v>99</v>
-      </c>
-      <c r="D144" t="s">
-        <v>124</v>
-      </c>
-      <c r="E144" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920243</v>
-      </c>
-      <c r="B145" t="s">
-        <v>80</v>
-      </c>
-      <c r="C145" t="s">
-        <v>99</v>
-      </c>
-      <c r="D145" t="s">
-        <v>124</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920244</v>
-      </c>
-      <c r="B146" t="s">
-        <v>81</v>
-      </c>
-      <c r="C146" t="s">
-        <v>69</v>
-      </c>
-      <c r="D146" t="s">
-        <v>125</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920244</v>
-      </c>
-      <c r="B147" t="s">
-        <v>81</v>
-      </c>
-      <c r="C147" t="s">
-        <v>69</v>
-      </c>
-      <c r="D147" t="s">
-        <v>125</v>
-      </c>
-      <c r="E147" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>19330051920244</v>
-      </c>
-      <c r="B148" t="s">
-        <v>81</v>
-      </c>
-      <c r="C148" t="s">
-        <v>69</v>
-      </c>
-      <c r="D148" t="s">
-        <v>125</v>
-      </c>
-      <c r="E148" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920244</v>
-      </c>
-      <c r="B149" t="s">
-        <v>81</v>
-      </c>
-      <c r="C149" t="s">
-        <v>69</v>
-      </c>
-      <c r="D149" t="s">
-        <v>125</v>
-      </c>
-      <c r="E149" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>19330051920244</v>
-      </c>
-      <c r="B150" t="s">
-        <v>81</v>
-      </c>
-      <c r="C150" t="s">
-        <v>69</v>
-      </c>
-      <c r="D150" t="s">
-        <v>125</v>
-      </c>
-      <c r="E150" t="s">
-        <v>6</v>
-      </c>
-      <c r="F150" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>19330051920244</v>
-      </c>
-      <c r="B151" t="s">
-        <v>81</v>
-      </c>
-      <c r="C151" t="s">
-        <v>69</v>
-      </c>
-      <c r="D151" t="s">
-        <v>125</v>
-      </c>
-      <c r="E151" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>19330051920245</v>
-      </c>
-      <c r="B152" t="s">
-        <v>82</v>
-      </c>
-      <c r="C152" t="s">
-        <v>100</v>
-      </c>
-      <c r="D152" t="s">
-        <v>126</v>
-      </c>
-      <c r="E152" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>19330051920245</v>
-      </c>
-      <c r="B153" t="s">
-        <v>82</v>
-      </c>
-      <c r="C153" t="s">
-        <v>100</v>
-      </c>
-      <c r="D153" t="s">
-        <v>126</v>
-      </c>
-      <c r="E153" t="s">
-        <v>5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>19330051920245</v>
-      </c>
-      <c r="B154" t="s">
-        <v>82</v>
-      </c>
-      <c r="C154" t="s">
-        <v>100</v>
-      </c>
-      <c r="D154" t="s">
-        <v>126</v>
-      </c>
-      <c r="E154" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>19330051920245</v>
-      </c>
-      <c r="B155" t="s">
-        <v>82</v>
-      </c>
-      <c r="C155" t="s">
-        <v>100</v>
-      </c>
-      <c r="D155" t="s">
-        <v>126</v>
-      </c>
-      <c r="E155" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>19330051920245</v>
-      </c>
-      <c r="B156" t="s">
-        <v>82</v>
-      </c>
-      <c r="C156" t="s">
-        <v>100</v>
-      </c>
-      <c r="D156" t="s">
-        <v>126</v>
-      </c>
-      <c r="E156" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>19330051920245</v>
-      </c>
-      <c r="B157" t="s">
-        <v>82</v>
-      </c>
-      <c r="C157" t="s">
-        <v>100</v>
-      </c>
-      <c r="D157" t="s">
-        <v>126</v>
-      </c>
-      <c r="E157" t="s">
-        <v>8</v>
-      </c>
-      <c r="F157" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6320,427 +3863,427 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920223</v>
+        <v>19330051920224</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920430</v>
+        <v>19330051920231</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920224</v>
+        <v>19330051920243</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920225</v>
+        <v>19330051920233</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920226</v>
+        <v>19330051920236</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920227</v>
+        <v>19330051920241</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920229</v>
+        <v>19330051920227</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920230</v>
+        <v>19330051920235</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920231</v>
+        <v>19330051920244</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920232</v>
+        <v>19330051920234</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920233</v>
+        <v>19330051920429</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920234</v>
+        <v>19330051920237</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920429</v>
+        <v>19330051420227</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920235</v>
+        <v>19330051920239</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920236</v>
+        <v>19330051920223</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
         <v>115</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920237</v>
+        <v>19330051920430</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
         <v>116</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920228</v>
+        <v>19330051920225</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051420227</v>
+        <v>19330051920226</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
         <v>118</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920404</v>
+        <v>19330051920229</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
         <v>119</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920240</v>
+        <v>19330051920230</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
         <v>120</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920239</v>
+        <v>19330051920232</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
         <v>121</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920241</v>
+        <v>19330051920228</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
         <v>122</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920242</v>
+        <v>19330051920404</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
         <v>123</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920243</v>
+        <v>19330051920240</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>124</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920244</v>
+        <v>19330051920242</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>125</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6748,16 +4291,16 @@
         <v>19330051920245</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
         <v>126</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6767,7 +4310,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6805,13 +4348,13 @@
         <v>19330051920227</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -6828,13 +4371,13 @@
         <v>19330051920227</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -6851,13 +4394,13 @@
         <v>19330051920234</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -6871,16 +4414,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920234</v>
+        <v>19330051920429</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -6897,13 +4440,13 @@
         <v>19330051920237</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -6917,22 +4460,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920237</v>
+        <v>19330051420227</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -6940,392 +4483,24 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051420227</v>
+        <v>19330051920239</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051420227</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920239</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920239</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920223</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920430</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920225</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920226</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920229</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920230</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920232</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920429</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920228</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920404</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920240</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920242</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>19330051920245</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/5APM - Estadisticos 20211.xlsx
+++ b/grupos/5APM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="127">
   <si>
     <t>Materia</t>
   </si>
@@ -161,12 +161,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>De Jesús Orduña Sofía del Pilar</t>
+  </si>
+  <si>
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
-    <t>De Jesús Orduña Sofía del Pilar</t>
-  </si>
-  <si>
     <t>Duran Amezcua María Angélica</t>
   </si>
   <si>
@@ -206,184 +206,184 @@
     <t>GUTIERREZ</t>
   </si>
   <si>
+    <t>HERAS</t>
+  </si>
+  <si>
+    <t>LADINO</t>
+  </si>
+  <si>
+    <t>LICEA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>CELICEO</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>HERAS</t>
-  </si>
-  <si>
-    <t>LADINO</t>
-  </si>
-  <si>
-    <t>LICEA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>CELICEO</t>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>MOISES URIEL</t>
+  </si>
+  <si>
+    <t>GABRIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>MARCOS URIEL</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>PAOLA</t>
+  </si>
+  <si>
+    <t>CESAR ENRIQUE</t>
+  </si>
+  <si>
+    <t>ZURISADAI</t>
+  </si>
+  <si>
+    <t>QADMIEL TAMARA</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>NADYA GUADALUPE</t>
+  </si>
+  <si>
+    <t>DANTE GAMALIEL</t>
+  </si>
+  <si>
+    <t>ABDIEL ANTONIO</t>
+  </si>
+  <si>
+    <t>DANIELA JAQUELINE</t>
+  </si>
+  <si>
+    <t>ALEJO</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>CESPEDES</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>REYNOSO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
   </si>
   <si>
     <t>CALPULALPAN</t>
   </si>
   <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>MOISES URIEL</t>
-  </si>
-  <si>
-    <t>GABRIEL ALEJANDRO</t>
-  </si>
-  <si>
-    <t>MARCOS URIEL</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>PAOLA</t>
+    <t>HUESCA</t>
+  </si>
+  <si>
+    <t>ALCARAZ</t>
+  </si>
+  <si>
+    <t>LLAVE</t>
+  </si>
+  <si>
+    <t>RAUL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
+    <t>ERICK MANUEL</t>
+  </si>
+  <si>
+    <t>KARLA FABIOLA</t>
+  </si>
+  <si>
+    <t>IRVING YAHIR</t>
+  </si>
+  <si>
+    <t>BRAULIO VADIR</t>
+  </si>
+  <si>
+    <t>VIANEY</t>
   </si>
   <si>
     <t>YARELY JACQUELINE</t>
-  </si>
-  <si>
-    <t>CESAR ENRIQUE</t>
-  </si>
-  <si>
-    <t>ZURISADAI</t>
-  </si>
-  <si>
-    <t>QADMIEL TAMARA</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>NADYA GUADALUPE</t>
-  </si>
-  <si>
-    <t>DANTE GAMALIEL</t>
-  </si>
-  <si>
-    <t>ABDIEL ANTONIO</t>
-  </si>
-  <si>
-    <t>DANIELA JAQUELINE</t>
-  </si>
-  <si>
-    <t>ALEJO</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
-    <t>CESPEDES</t>
-  </si>
-  <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ESTRADA</t>
-  </si>
-  <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>REYNOSO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>HUESCA</t>
-  </si>
-  <si>
-    <t>ALCARAZ</t>
-  </si>
-  <si>
-    <t>LLAVE</t>
-  </si>
-  <si>
-    <t>RAUL ALEJANDRO</t>
-  </si>
-  <si>
-    <t>JOSE LUIS</t>
-  </si>
-  <si>
-    <t>ERICK MANUEL</t>
-  </si>
-  <si>
-    <t>KARLA FABIOLA</t>
-  </si>
-  <si>
-    <t>IRVING YAHIR</t>
-  </si>
-  <si>
-    <t>BRAULIO VADIR</t>
-  </si>
-  <si>
-    <t>VIANEY</t>
   </si>
   <si>
     <t>FATIMA</t>
@@ -1053,7 +1053,7 @@
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -1107,7 +1107,7 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y6">
         <v>7</v>
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -1338,7 +1338,7 @@
         <v>7</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y9">
         <v>9</v>
@@ -1592,7 +1592,7 @@
         <v>-1</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1646,7 +1646,7 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y13">
         <v>5</v>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1800,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y15">
         <v>5</v>
@@ -1900,7 +1900,7 @@
         <v>6</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -1954,7 +1954,7 @@
         <v>6</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>6</v>
@@ -1977,7 +1977,7 @@
         <v>6</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -2031,7 +2031,7 @@
         <v>6</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y18">
         <v>6</v>
@@ -2516,7 +2516,7 @@
         <v>-1</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2570,7 +2570,7 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y25">
         <v>6</v>
@@ -2670,7 +2670,7 @@
         <v>-1</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -2724,7 +2724,7 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y27">
         <v>5</v>
@@ -2747,7 +2747,7 @@
         <v>6</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -2801,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y28">
         <v>6</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -2949,30 +2949,30 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>61.54</v>
+        <v>65.38</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>38.46</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -2981,25 +2981,25 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>65.38</v>
+        <v>69.23</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>26.92</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>34.62</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3137,7 +3137,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3175,10 +3175,10 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -3195,10 +3195,10 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -3215,13 +3215,13 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -3235,24 +3235,24 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920224</v>
+        <v>19330051920227</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
@@ -3261,41 +3261,41 @@
         <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920227</v>
+        <v>19330051920231</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920227</v>
+        <v>19330051920231</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>82</v>
@@ -3304,7 +3304,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3318,44 +3318,44 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920231</v>
+        <v>19330051920233</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920231</v>
+        <v>19330051920233</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>83</v>
@@ -3364,84 +3364,84 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920231</v>
+        <v>19330051920234</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920233</v>
+        <v>19330051920235</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920233</v>
+        <v>19330051920236</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920233</v>
+        <v>19330051920236</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
@@ -3449,382 +3449,202 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920234</v>
+        <v>19330051920236</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920429</v>
+        <v>19330051920237</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920235</v>
+        <v>19330051420227</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920235</v>
+        <v>19330051920239</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920236</v>
+        <v>19330051920241</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920236</v>
+        <v>19330051920241</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920236</v>
+        <v>19330051920243</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920237</v>
+        <v>19330051920243</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051420227</v>
+        <v>19330051920243</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920239</v>
+        <v>19330051920244</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>19330051920241</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>19330051920241</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>19330051920241</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>19330051920243</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>19330051920243</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>19330051920243</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>19330051920243</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>19330051920244</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>19330051920244</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3869,13 +3689,13 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3889,41 +3709,41 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920243</v>
+        <v>19330051920236</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920233</v>
+        <v>19330051920243</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -3931,19 +3751,19 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920236</v>
+        <v>19330051920233</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3951,16 +3771,16 @@
         <v>19330051920241</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3971,61 +3791,61 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920235</v>
+        <v>19330051920234</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920244</v>
+        <v>19330051920235</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920234</v>
+        <v>19330051920237</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4033,16 +3853,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920429</v>
+        <v>19330051420227</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4050,13 +3870,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920237</v>
+        <v>19330051920239</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -4067,16 +3887,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051420227</v>
+        <v>19330051920244</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4084,30 +3904,30 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920239</v>
+        <v>19330051920223</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920223</v>
+        <v>19330051920430</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
         <v>115</v>
@@ -4118,13 +3938,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920430</v>
+        <v>19330051920225</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
         <v>116</v>
@@ -4135,13 +3955,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920225</v>
+        <v>19330051920226</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4152,13 +3972,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920226</v>
+        <v>19330051920229</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
         <v>118</v>
@@ -4169,13 +3989,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920229</v>
+        <v>19330051920230</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
         <v>119</v>
@@ -4186,13 +4006,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920230</v>
+        <v>19330051920232</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
         <v>120</v>
@@ -4203,13 +4023,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920232</v>
+        <v>19330051920429</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
         <v>121</v>
@@ -4223,10 +4043,10 @@
         <v>19330051920228</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
         <v>122</v>
@@ -4240,10 +4060,10 @@
         <v>19330051920404</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
         <v>123</v>
@@ -4257,7 +4077,7 @@
         <v>19330051920240</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -4274,10 +4094,10 @@
         <v>19330051920242</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
         <v>125</v>
@@ -4291,10 +4111,10 @@
         <v>19330051920245</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
         <v>126</v>
@@ -4310,7 +4130,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4345,42 +4165,42 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920227</v>
+        <v>19330051920235</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920227</v>
+        <v>19330051920235</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -4391,22 +4211,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920234</v>
+        <v>19330051920227</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -4414,22 +4234,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920429</v>
+        <v>19330051920234</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -4437,39 +4257,39 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920237</v>
+        <v>19330051920429</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051420227</v>
+        <v>19330051920237</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -4483,24 +4303,47 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
+        <v>19330051420227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>19330051920239</v>
       </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9">
         <v>-1</v>
       </c>
     </row>
